--- a/cypress/downloads/Balanço 29-01-2024 à 29-02-2024.xlsx
+++ b/cypress/downloads/Balanço 29-01-2024 à 29-02-2024.xlsx
@@ -540,7 +540,7 @@
         <v>20</v>
       </c>
       <c r="K2">
-        <v>774577621</v>
+        <v>357453576</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>

--- a/cypress/downloads/Balanço 29-01-2024 à 29-02-2024.xlsx
+++ b/cypress/downloads/Balanço 29-01-2024 à 29-02-2024.xlsx
@@ -540,7 +540,7 @@
         <v>20</v>
       </c>
       <c r="K2">
-        <v>357453576</v>
+        <v>871191634</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
